--- a/biology/Biochimie/Hilaire_de_Chardonnet/Hilaire_de_Chardonnet.xlsx
+++ b/biology/Biochimie/Hilaire_de_Chardonnet/Hilaire_de_Chardonnet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hilaire de Chardonnet, né le 1er mai 1839 à Besançon et mort le 11 mars 1924 à Paris, est un ingénieur scientifique et un  industriel de Besançon, inventeur de la soie artificielle et fondateur de la Société de la soie Chardonnet.
 </t>
@@ -511,7 +523,9 @@
           <t>L'homme politique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de l'ancien sous-préfet royaliste sous la Restauration Gustave Bernigaud de Chardonnet et de Christine Pautenet de Vereux, il naît le 1er mai 1839 au 2, place Jean-Cornet, à Besançon, dans l'hôtel Petit de Marivat, ancien hôtel Bruchon. Il suit des études à la faculté des sciences de Besançon. En 1859, il est admis à l'École polytechnique, où il croise Sadi Carnot, futur président de la République.
 Mais en 1861, Chardonnet  manifeste son hostilité à Napoléon III en démissionnant de l'école, d'où il sort cependant ingénieur des ponts et chaussées. Il accompagne alors le « comte de Chambord » dans son exil en Autriche, d'où ils œuvrent au rétablissement de la monarchie. Pendant plusieurs années, il officie comme chambellan à la cour du comte de Chambord à Frohsdorf et ce dernier le charge également de missions à l'étranger. L'une de celles-ci l'amène au château du Vernay pour étudier la maladie des vers à soie. Il y rencontre Marie-Antoinette Camille Ruolz de Montchal qu'il épouse en 1866. De cette union, naît Anne de Chardonnet (1869-1926), sculptrice, élève de Mathurin Moreau et Jules Franceschi, auteur d'un buste en marbre du « comte de Chambord » exposé au Musée des beaux-arts de Besançon.
@@ -545,7 +559,9 @@
           <t>L'inventeur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'engage alors totalement dans une carrière de chercheur scientifique à laquelle il a déjà consacré beaucoup de son temps. Il crée dans sa maison de la place de l’État-Major à Besançon un important laboratoire et s'intéresse, entre autres sujets, au téléphone, à l'automobile, aux rayons ultraviolets, à la photographie dans l'obscurité.
 Il est chargé d'une étude sur une maladie du ver à soie qui frappe l'industrie textile française d'alors, sous la direction du Franc-Comtois Louis Pasteur. Il a l'idée de reproduire en laboratoire, puis de fabriquer industriellement, une des créations les plus délicates de la nature : la soie. Il installe son premier atelier de recherche et d'expérimentation de filature de soie artificielle à Gergy, près de Chalon-sur-Saône, dans la villa « La Croix blanche » qu'il a héritée de son père.
@@ -584,11 +600,13 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Don Carlos / par le Vte de***, ancien élève de l'École polytechnique, Paris, 1874. [1]
-Hilaire de Chardonnet, « Notice sur C.-C. Person, ancien membre titulaire de l'Académie de Besançon », dans le Bulletin de l'Académie de Besançon,1885. [2]
-Hilaire de Chardonnet, « Souvenirs de la guerre carliste », dans Mémoires de l'Académie de Besançon, 1898. [3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don Carlos / par le Vte de***, ancien élève de l'École polytechnique, Paris, 1874. 
+Hilaire de Chardonnet, « Notice sur C.-C. Person, ancien membre titulaire de l'Académie de Besançon », dans le Bulletin de l'Académie de Besançon,1885. 
+Hilaire de Chardonnet, « Souvenirs de la guerre carliste », dans Mémoires de l'Académie de Besançon, 1898. </t>
         </is>
       </c>
     </row>
@@ -616,12 +634,14 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Un timbre français a été gravé à son effigie, dans une série d'inventeurs en 1955.
 Son nom a été donné à :
-Un lycée de Chalon-sur-Saône, en Saône-et-Loire[1] ;
-Le centre de formation d'apprentis de Besançon, dans le Doubs[2] ;
+Un lycée de Chalon-sur-Saône, en Saône-et-Loire ;
+Le centre de formation d'apprentis de Besançon, dans le Doubs ;
 Une voie dans d'autres communes parmi lesquelles on peut citer Genas, Gergy, Grenoble, Lyon, Rennes, Saint-Maurice-de-Beynost, Salaise-sur-Sanne, Toulouse ou Valentigney.
 Une place des pentes de la Croix-Rousse à Lyon où se trouve un buste monumental de l'inventeur.
 La passerelle de Chardonnet à Besançon : ancien pont ferroviaire transformé en passerelle piétonne.
